--- a/清單.xlsx
+++ b/清單.xlsx
@@ -435,7 +435,7 @@
   <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -537,7 +537,7 @@
       </c>
     </row>
     <row r="19" spans="1:1">
-      <c r="A19" t="s">
+      <c r="A19" s="1" t="s">
         <v>15</v>
       </c>
     </row>

--- a/清單.xlsx
+++ b/清單.xlsx
@@ -30,10 +30,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>單芯線</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>銅箔板</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -79,6 +75,10 @@
   </si>
   <si>
     <t>九芯線</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黑色多芯線</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -103,7 +103,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -113,6 +113,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -131,11 +137,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -435,7 +444,7 @@
   <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -459,31 +468,31 @@
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="1" t="s">
-        <v>3</v>
+      <c r="A5" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="B5">
         <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="1" t="s">
-        <v>4</v>
+      <c r="A6" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B10">
         <v>2</v>
@@ -491,7 +500,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11">
         <v>7</v>
@@ -499,17 +508,17 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B14">
         <v>7</v>
@@ -517,7 +526,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B15">
         <v>7</v>
@@ -525,7 +534,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B16">
         <v>18</v>
@@ -533,12 +542,12 @@
     </row>
     <row r="18" spans="1:1">
       <c r="A18" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
